--- a/sample/売上データ.xlsx
+++ b/sample/売上データ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyow\home\kai_system\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030DF182-C1DE-4373-88A5-A089073FB8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3B2FF7-4DA4-4271-BBAE-2B3E914AED81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5445" yWindow="4380" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
